--- a/CS3341-proj1.xlsx
+++ b/CS3341-proj1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\jadon\algos\assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1439689C-C8F0-42D0-AA55-54776D68FFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE73AF6-8EC0-4009-9179-82C1F23CC8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="13152" xr2:uid="{DBE40AC1-21D3-7B49-B227-1B135AEAF3F0}"/>
   </bookViews>
@@ -3328,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD45C09-9C6D-AF48-97EE-6F4B5CE96D7A}">
   <dimension ref="A1:AO161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="89" workbookViewId="0">
-      <selection activeCell="AP103" sqref="AP103"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
